--- a/back-end/Web Dinamico 2/MRVMinem/obj/Release/Package/PackageTmp/bin/Documentos/2.1 Plantilla_Coccion_Lena.xlsx
+++ b/back-end/Web Dinamico 2/MRVMinem/obj/Release/Package/PackageTmp/bin/Documentos/2.1 Plantilla_Coccion_Lena.xlsx
@@ -5,24 +5,25 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dell\Desktop\Versiòn plantillas\Versión borrado de meses y fechas SOLO SE DEJO AÑOS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dell\Desktop\Versión borrado de meses y fechas SOLO SE DEJO AÑOS _V2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C0AE453-7A72-4DF5-8A7E-71F5B8222EF5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{979EEE31-B305-43BF-A5D0-F2B8EEBED4CF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{C6899A77-0BE4-4BA8-9CC3-92CBC97C3246}"/>
   </bookViews>
   <sheets>
     <sheet name="Cocción Leña" sheetId="1" r:id="rId1"/>
-    <sheet name="Hoja2" sheetId="2" state="hidden" r:id="rId2"/>
+    <sheet name="Hoja1" sheetId="3" state="hidden" r:id="rId2"/>
+    <sheet name="Hoja2" sheetId="2" state="hidden" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="Lista_Anno">Hoja2!$A$6:$A$26</definedName>
     <definedName name="Lista_Base">Hoja2!$C$6</definedName>
-    <definedName name="Lista_Coccion">Hoja2!$F$6:$F$14</definedName>
+    <definedName name="Lista_coccion">Hoja2!$F$6:$F$17</definedName>
     <definedName name="Lista_Region">Hoja2!$I$6:$I$8</definedName>
     <definedName name="Tabla_Base">Hoja2!$C$6:$D$6</definedName>
-    <definedName name="Tabla_Coccion">Hoja2!$F$6:$G$14</definedName>
+    <definedName name="Tabla_coccion">Hoja2!$F$6:$G$17</definedName>
     <definedName name="Tabla_Region">Hoja2!$I$6:$J$8</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
@@ -41,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="29">
   <si>
     <t>Año</t>
   </si>
@@ -62,9 +63,6 @@
   </si>
   <si>
     <t>Inkawasi tawa</t>
-  </si>
-  <si>
-    <t>Inkawasi tawa pichqa</t>
   </si>
   <si>
     <t>Inkawasi 3 hornillas</t>
@@ -109,9 +107,6 @@
     <t>Año al que corresponde la instalación de la cocina. Seleccione de la lista desplegable.</t>
   </si>
   <si>
-    <t>Nombre de tecnologia de cocción Seleccione de la lista desplegable.</t>
-  </si>
-  <si>
     <t>Región donde fueron instaladas las cocinas. Seleccione de la lista desplegable.</t>
   </si>
   <si>
@@ -119,6 +114,21 @@
   </si>
   <si>
     <t>Registrar sus datos según el ejemplo brindado. Borre estos datos y complete los suyos.</t>
+  </si>
+  <si>
+    <t>Altoandina</t>
+  </si>
+  <si>
+    <t>Amaray</t>
+  </si>
+  <si>
+    <t>Econofire</t>
+  </si>
+  <si>
+    <t>Inkawasi pichqa</t>
+  </si>
+  <si>
+    <t>Nombre de tecnologia de cocción. Seleccione de la lista desplegable.</t>
   </si>
 </sst>
 </file>
@@ -261,7 +271,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -298,6 +308,7 @@
     <xf numFmtId="3" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -624,7 +635,7 @@
   <dimension ref="A1:F311"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -645,61 +656,61 @@
         <v>1</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D1" s="5" t="s">
         <v>1</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="B2" s="15"/>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="16"/>
+      <c r="A2" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" s="16"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="17"/>
     </row>
     <row r="3" spans="1:6" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B3" s="11"/>
       <c r="C3" s="10" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="D3" s="11"/>
       <c r="E3" s="10" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F3" s="10" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="12">
-        <v>2013</v>
+        <v>2010</v>
       </c>
       <c r="B4" s="12">
-        <f t="shared" ref="B4:B67" si="0">VLOOKUP(C4,Tabla_Coccion,2,)</f>
+        <f t="shared" ref="B4:B67" si="0">VLOOKUP(C4,Tabla_coccion,2,)</f>
         <v>3</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D4" s="12">
         <f t="shared" ref="D4:D67" si="1">VLOOKUP(E4,Tabla_Region,2,)</f>
         <v>1</v>
       </c>
       <c r="E4" s="12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F4" s="13">
         <v>1131</v>
@@ -1590,7 +1601,7 @@
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" s="6"/>
       <c r="B68" s="6" t="e">
-        <f t="shared" ref="B68:B131" si="2">VLOOKUP(C68,Tabla_Coccion,2,)</f>
+        <f t="shared" ref="B68:B131" si="2">VLOOKUP(C68,Tabla_coccion,2,)</f>
         <v>#N/A</v>
       </c>
       <c r="C68" s="6"/>
@@ -2486,7 +2497,7 @@
     <row r="132" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A132" s="6"/>
       <c r="B132" s="6" t="e">
-        <f t="shared" ref="B132:B195" si="4">VLOOKUP(C132,Tabla_Coccion,2,)</f>
+        <f t="shared" ref="B132:B195" si="4">VLOOKUP(C132,Tabla_coccion,2,)</f>
         <v>#N/A</v>
       </c>
       <c r="C132" s="6"/>
@@ -3382,7 +3393,7 @@
     <row r="196" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A196" s="6"/>
       <c r="B196" s="6" t="e">
-        <f t="shared" ref="B196:B259" si="6">VLOOKUP(C196,Tabla_Coccion,2,)</f>
+        <f t="shared" ref="B196:B259" si="6">VLOOKUP(C196,Tabla_coccion,2,)</f>
         <v>#N/A</v>
       </c>
       <c r="C196" s="6"/>
@@ -4278,7 +4289,7 @@
     <row r="260" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A260" s="6"/>
       <c r="B260" s="6" t="e">
-        <f t="shared" ref="B260:B311" si="8">VLOOKUP(C260,Tabla_Coccion,2,)</f>
+        <f t="shared" ref="B260:B311" si="8">VLOOKUP(C260,Tabla_coccion,2,)</f>
         <v>#N/A</v>
       </c>
       <c r="C260" s="6"/>
@@ -5004,7 +5015,7 @@
       <c r="F311" s="9"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="1VaAUmSyArxrypP2Jv+6q1ExVgIgCIlbDNGsaj+547VBj1TxKr4BpDa/p62wmTFbuP/mjEvCCEGcm3ZQnB8GSw==" saltValue="8MbPtUWqX/gQFCJpLZ/QCA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="bzHpPtsQ4fhvc7O6oCgl/bpVxeT/HhqbBAZa6xNqohMbzxvZVznARfcBWm8I02+XahOGgvZY54ybYhjcd89JHQ==" saltValue="47ukQCrHnkFXqExF5PK3lg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="1">
     <mergeCell ref="A2:F2"/>
   </mergeCells>
@@ -5013,7 +5024,7 @@
       <formula1>Lista_Anno</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C4:C311" xr:uid="{C37D4824-48D9-47B4-A320-240240C3363A}">
-      <formula1>Lista_Coccion</formula1>
+      <formula1>Lista_coccion</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E4:E311" xr:uid="{25EEA340-155A-4C45-B94F-734A86E78B25}">
       <formula1>Lista_Region</formula1>
@@ -5029,11 +5040,23 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1C8C739-CC6D-4B26-BF54-7FC071AFCEA0}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A719829-71F9-4601-BD97-53D75F828600}">
   <dimension ref="A5:J26"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5058,7 +5081,7 @@
         <v>5</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J5" s="3" t="s">
         <v>5</v>
@@ -5081,7 +5104,7 @@
         <v>1</v>
       </c>
       <c r="I6" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J6" s="4">
         <v>1</v>
@@ -5092,13 +5115,13 @@
         <v>2011</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="G7" s="4">
         <v>2</v>
       </c>
       <c r="I7" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J7" s="4">
         <v>2</v>
@@ -5109,13 +5132,13 @@
         <v>2012</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G8" s="4">
         <v>3</v>
       </c>
       <c r="I8" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J8" s="4">
         <v>3</v>
@@ -5126,7 +5149,7 @@
         <v>2013</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G9" s="4">
         <v>4</v>
@@ -5137,7 +5160,7 @@
         <v>2014</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G10" s="4">
         <v>5</v>
@@ -5148,7 +5171,7 @@
         <v>2015</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G11" s="4">
         <v>6</v>
@@ -5159,7 +5182,7 @@
         <v>2016</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G12" s="4">
         <v>7</v>
@@ -5170,7 +5193,7 @@
         <v>2017</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G13" s="4">
         <v>8</v>
@@ -5181,7 +5204,7 @@
         <v>2018</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G14" s="4">
         <v>9</v>
@@ -5191,58 +5214,76 @@
       <c r="A15" s="1">
         <v>2019</v>
       </c>
+      <c r="F15" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="G15" s="14">
+        <v>10</v>
+      </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>2020</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="F16" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="G16" s="14">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>2021</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="F17" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="G17" s="14">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>2022</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>2023</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>2024</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>2025</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>2026</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>2027</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>2028</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>2029</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>2030</v>
       </c>
